--- a/outputs-HGR-r202/g__Blautia_A.xlsx
+++ b/outputs-HGR-r202/g__Blautia_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,6 +580,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -671,6 +676,11 @@
       <c r="AC2" t="inlineStr">
         <is>
           <t>s__Blautia_A caecimuris</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>s__Blautia_A caecimuris(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Blautia_A.xlsx
+++ b/outputs-HGR-r202/g__Blautia_A.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>s__Blautia_A caecimuris</t>
+          <t>s__Blautia_A caecimuris(reject)</t>
         </is>
       </c>
     </row>
